--- a/500all/speech_level/speeches_CHRG-114hhrg94408.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94408.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412468</t>
   </si>
   <si>
-    <t>Tom Marino</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marino. The Judiciary Committee will come to order.    Without objection, the Chair is authorized to declare recesses of the Committee at any time.    We welcome everyone this morning to our hearing on the Register's Perspective on Copyright and Review. And I know we will get a very thorough, in-depth analysis of this.    I'm going to turn first now to Ranking Member Conyers for his statement.    And Chairman Goodlatte will arrive shortly to give his opening statement.    And, with that, Ranking Member Conyers.</t>
   </si>
   <si>
     <t>400080</t>
   </si>
   <si>
-    <t>John Conyers, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman Marino.    And to the Committee that will be coming in soon and to all of our interested friends that are in the audience. You know, in the Declaration of Independence, our Founders--wait a minute--okay.    Today's hearing culminates the Committee's 2-year-long examination of the Copyright Act, a process that has involved 19 hearings and 99 witnesses. Our current Register of Copyrights here today makes 100 witnesses. It's a particularly fitting occasion that Ms. Maria Pallante, the Register of Copyrights, testifies at this final hearing, as she was the first witness to testify at the beginning of the process. Over the course of this review, we've identified several priorities that I think we should consider. First, if our Nation is to have a strong copyright system, we, in Congress, must restructure the Copyright Office.    The Office examines the Register's copyright claims, records copyrighted documents, and administers statutory licenses. It provides expert copyright advice to Congress as well as various Federal agencies concerning trade agreements, treaty negotiations, and court proceedings. And the Office recommends much needed improvements to the copyright system.    Nevertheless, the existing Copyright Office is ill-equipped financially and structurally to handle certain challenges presented by technological developments and the growing demands of the copyright system. Essentially, the Office needs to modernize and become more user-friendly and efficient.    I thank Ms. Pallante for acknowledging the Office's limitations in her post-hearing response to my February request about her views on reorganizing the copyright letter. Her thorough response included different alternative proposals to help Congress determine how best to approach restructuring the Copyright Office. Now I welcome other stakeholders in the copyright community to submit to us their views and proposals to help bring the Copyright Office into the 21st century.    The 2-year review has highlighted several other areas where the copyright community can find common ground and which Congress should address promptly. A forum to resolve small claims should be established. Fortunately, the Office has already submitted a legislative proposal for addressing the need.    With respect to music licensing, the Office recently issued a report recommending reforms. For me, that's a very important area. Pending actions in the courts and by the Department of Justice will provide additional guidance to Congress as it considers reforming music licensing. The Fair Play Fair Pay Act, H.R. 1733, which I support, is one legislative proposal to address music licensing, the AM/FM royalties for musicians, which is not paid. The issue of orphan works must also be addressed. The Copyright Office will soon be issuing a report which will provide Congress a much needed framework for a legislative solution. As more copyrighted content continues to move to the Internet, current criminal enforcement laws must be updated to deter copyright infringement while encouraging new technological platforms which utilize the licensing copyright.    These are a few of the copyright-related issues that have come to our attention over the last 2 years that Congress should address without delay. For areas which are not ripe and need more detailed discussion, we should request that the Copyright Office issue reports and submit legislative proposals on which we can act in the near term.    And, finally, this review has confirmed that strong copyright protections are integral to a strong and vibrant copyright system. I've noted many times during this Committee's review that we must ensure that the copyright system treats creators fairly and fosters their continuing creativity. Whatever changes Congress makes to the Copyright Act must promote creation among artists and protect their rights. Strong copyright protections will also foster a marketplace for content that consumers will enjoy as well as encourage technological innovation that can be used to watch the content. I thank the Chair for holding today's hearings.    And I welcome and look forward to hearing from Register Pallante.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Pallante</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Pallante. I do.</t>
   </si>
   <si>
@@ -160,9 +151,6 @@
     <t>400196</t>
   </si>
   <si>
-    <t>Darrell E. Issa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you.    Ms. Pallante, it's good to have you here again. I want to pick up where the Ranking Member left off because I think it's very important. When you came into office, as you know, I was extremely pleased. You talked in terms of things that must get accomplished. But today's hearing brings us a lot of information about studies in which you want to do more studies. And you already are a fairly independent agency, in spite of your lack of certainty in certain areas. How do we get you from studying to proposing? And how do we get you from proposing to doing?</t>
   </si>
   <si>
@@ -220,9 +208,6 @@
     <t>400289</t>
   </si>
   <si>
-    <t>Jerrold Nadler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nadler. Thank you, Mr. Chairman.    I want to begin by thanking Chairman Goodlatte for conducting the comprehensive review of copyright law and of the Copyright Office that we are now concluding. Over the course of these 20 hearings, we have learned a lot about what is working and also what needs to be improved. It's now our task to put this knowledge into action.    Fortunately, the Copyright Office has helped guide us through these difficult issues. And I appreciate all the assistance that you, Ms. Pallante, and your staff have provided us throughout this review process. I particularly appreciate your call for the United States to join 70 other countries around the world in providing fair compensation to visual artists through a resale royalty and your comprehensive report on music licensing.    Along with my colleagues Marsha Blackburn, John Conyers, and Ted Deutch, I recently introduced the Fair Play Fair Pay Act to correct several longstanding injustices that plague music creators. This legislation would ensure that all artists are fairly compensated regardless of where their music is played or when it was recorded and would create a technology-neutral system whereby Internet radio is on an equal footing with AM/FM, cable, and satellite services.    Ms. Pallante, you mentioned in your testimony that music licensing issues are ripe for action. Do you believe that Congress should move forward with legislation, such as the Fair Play Fair Pay Act, to enact the full public performance right? If so, why do you believe this is an urgent matter that Congress should address?</t>
   </si>
   <si>
@@ -259,9 +244,6 @@
     <t>400154</t>
   </si>
   <si>
-    <t>Bob Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte [presiding]. Thank you, Register Pallante. I'm going to go ahead and give my statement since I'm late getting here, and then I'll go straight into my question, but a brief statement.    Two years ago, this Committee began the first comprehensive review of our Nation's copyright laws since the 1960's. During these 2 years, we have had a total of 20 hearings with 100 witnesses, had hearings that covered broader topics, such as the role of technology and copyright in our economy, to more specific topics, such as the scope of copyright protection and fair use.    Our first witness was the Register of Copyrights, Ms. Pallante. She returns this morning and has given her perspective on what the Committee has learned over the past 2 years and to update us on the in-depth studies that the Copyright Office has completed during this time. The Committee recognizes the strong, in-depth analysis routinely conducted by the Copyright Office. The Committee has always expected the advice of the Register being provided to Congress on copyright policy issues and the role of the Copyright Office itself to come from her independent perspective without filtering or direction from others. The Committee welcomes her forthrightness about the challenges her office faces, as well as what options Congress should consider in order to meet her legal requirements and the needs of the copyright community.    As the copyright review hearing process proceeded, each witness was essentially limited to speaking on the topic of that particular hearing. However, there are a few participants in the copyright system that care about only one copyright issue. Over the next several months, the Committee will be reaching out to all stakeholders to invite them to share their views on the copyright issues we have examined over the course of our review so far as well as any others. Even since we began our review, there have been several new Copyright Office studies, new technologies, court decisions, and even changes in business models. So we look forward to hearing from stakeholders on all of these important issues. During this process, we also encourage all participants in the copyright system to continue their dialogues with each other. Progress in copyright policy requires all parties to work together. Although it is certainly easier to discuss copyright policy with a traditional ally, copyright policy will not advance unless the lines of communication are open among all participants.    Finally, I'm going to my questions.    You recently released a comprehensive music study, recommending a series of changes to the music licensing system to improve it. Is improving the existing music licensing system preferable to shifting it to a free-market system with robust antimonopoly controls so that market forces determine prices rather than the government?</t>
   </si>
   <si>
@@ -292,9 +274,6 @@
     <t>400245</t>
   </si>
   <si>
-    <t>Zoe Lofgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you, Mr. Chairman.    I appreciate this hearing. And I just wanted to make a quick statement. In your testimony, there's some things I agree with. There's some things that are reminiscent of SOPA. And I just want to state for the Netroots that, to the extent that there are SOPA-like elements, I'm still against them.    I want to talk about the IT system. I agree that the IT system needs to be updated. But I want to talk about the whole idea of having taxpayer money allocated to this function. I realize from your testimony the constraint really has been created by us because of the forward funding. But the USPTO budget is $3.2 billion, and it's 100 percent fees. And it just seems to me that that ought to be the model here. Your budget is much smaller. But there is no reason why the taxpayers should be funding this any more than the taxpayers should be funding the Patent and Trademark Office. I just think that it's possible to do. We have very successful industries in the content area. And I just am eager to work with you to explore that further.    I also want to talk on section 1201. And I was looking up and down the dais here, realizing there's only a few of us left who were actually here when the DMCA was adopted. And 1201 caused me a lot of heartburn at the time. And it still does. And so here is one of the questions I have--and I had then--which is, do you believe that fair use is a defense to circumvention under 1201?</t>
   </si>
   <si>
@@ -325,9 +304,6 @@
     <t>412379</t>
   </si>
   <si>
-    <t>Judy Chu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Chu. Thank you, Mr. Chair.    First I'd like to enter into the record statements from the Copyright Alliance and Creative Future&lt;greek-l&gt;B1 deg. on their support for a strong copyright system. I'd also like to enter a statement from Sound Exchange&lt;greek-l&gt;B2 deg. into the record.</t>
   </si>
   <si>
@@ -355,9 +331,6 @@
     <t>412636</t>
   </si>
   <si>
-    <t>David A. Trott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Trott. Thank you, Chairman.    I want to thank our witness this morning, Ms. Pallante. I've been looking forward to your testimony. I'm new here in Congress, but everyone I've spoken with has commented to me on how insightful, helpful, and pragmatic some of your suggestions and insight has been for this Committee, and one of the few people that I've heard about since being here that everyone says great things about, and it doesn't happen too often in this town.</t>
   </si>
   <si>
@@ -391,9 +364,6 @@
     <t>412385</t>
   </si>
   <si>
-    <t>Theodore E. Deutch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you, Mr. Chairman.    Mr. Chairman, first I'd like to join the chorus of voices heaping praise on Ms. Pallante and her office. Thank you for your leadership, your thoughtful, very thoughtful, analysis of these issues and the tireless efforts that you and your staff put in in really strengthening the intellectual property of our country. We appreciate it.    I want to follow up on this issue of independence, and the understanding that I have that a lot of us I think have come to conclude, certainly from today, that the Register would be in a better position--significantly better position if it gained more independence through Copyright Office modernization, which I think is one thing where there's broad agreement and I hope that we move forward on.    But following up on this issue, when you were here with us last, you somewhat reluctantly discussed the challenges created by the fact that the Copyright Office is forced to rely on technical infrastructure at the Library of Congress, including its network servers, telecommunications and security operations, in spite of the vastly different mandates that the Library and the Copyright Office have. And you touched on that a bit here today.    It seems to me like your inclusion under the umbrella of the Library of Congress, however well intentioned, is hampering the work that you do beyond simple technical challenges. It's not just about the technical issues. And I'm sure that--and I acknowledge that your response has been somewhat limited here today, but I will simply say on your behalf, if I may, that it's hard to see how the Copyright Office can rise to the many challenges of the 21st century work that you do without dramatically more independence and dramatically more flexibility. I would just make that point.    I also wanted to follow up on Mr. Trott's last point. One of the primary recommendations of your recent music licensing study is that Congress should adopt a uniform market-based rate setting a standard for all government rates, and I agree with that. And when the Music First Coalition showed me this graphic that we're about to hold up that depicts the current system for the various forms of radio, it solidified for me how unnecessarily complex and, in fact, as you've just pointed out, how unfair the current system is. You spoke about the--I mean, your words, that it's indefensible that we don't pay creators when songs are played on the radio. I wholeheartedly agree with that.    Do you agree that all forms of radio should be governed by the same fair-market-value rate standard?</t>
   </si>
   <si>
@@ -406,9 +376,6 @@
     <t>412531</t>
   </si>
   <si>
-    <t>Doug Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins [presiding]. Oh, without objection, but the bigger version will be fine as well.</t>
   </si>
   <si>
@@ -493,9 +460,6 @@
     <t>400199</t>
   </si>
   <si>
-    <t>Sheila Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Let me thank you for your presence here today, and I know that Members have been going in and out because we've been detained in other meetings, and in fact there is one overlapping now. But I think it's very important to, one, emphasize how important copyright and intellectual property is to this Committee, to this Congress, and to the Nation, and I might say that you are particularly important today because the prime minister of Japan in his speech just finished and indicated his commitment to protecting intellectual property, of which I think he received a standing ovation. So you might want to use that quote or comment on how important it is to do that.    Let me go to the whole question of finance and staffing. In your testimony, you mentioned that the Copyright Office has one of the smallest staffs within the government generally, and so I would be interested in how that's impacting on your work, and as we're going forward, have you looked at--I know you looked at the President's budget, but we're getting ready to go forward. We are absolutely opposed to sequester. We think it has had a dastardly impact. But I'd like to know presently what your situation is with your copyright staffing.</t>
   </si>
   <si>
@@ -560,9 +524,6 @@
   </si>
   <si>
     <t>412561</t>
-  </si>
-  <si>
-    <t>Hakeem S. Jeffries</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank the Chairman, and I thank the Register for your testimony here today----</t>
@@ -1027,11 +988,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1051,13 +1010,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1079,11 +1036,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1103,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1131,11 +1084,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1155,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1183,11 +1132,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1207,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1235,11 +1180,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1261,11 +1204,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1285,13 +1226,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1313,11 +1252,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1337,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1365,11 +1300,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1389,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1417,11 +1348,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1441,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1469,11 +1396,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1493,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1519,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1545,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1571,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1597,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1623,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1649,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1675,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1701,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1727,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1753,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1781,11 +1684,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1805,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1831,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1857,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
         <v>47</v>
-      </c>
-      <c r="G34" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1883,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1909,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s">
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1935,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1961,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" t="s">
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1987,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2013,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" t="s">
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2039,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2065,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" t="s">
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2091,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2117,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" t="s">
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2143,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2169,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" t="s">
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2195,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2221,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
-      </c>
-      <c r="G48" t="s">
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2249,11 +2116,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2273,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" t="s">
-        <v>68</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2299,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2325,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G52" t="s">
-        <v>68</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2351,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2377,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
         <v>68</v>
-      </c>
-      <c r="H54" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2403,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2429,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" t="s">
-        <v>68</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2455,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2481,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" t="s">
-        <v>68</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2507,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2533,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" t="s">
-        <v>68</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2559,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
-      </c>
-      <c r="G61" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2585,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2611,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
-      </c>
-      <c r="G63" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2637,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2663,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
+        <v>75</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
         <v>80</v>
-      </c>
-      <c r="G65" t="s">
-        <v>81</v>
-      </c>
-      <c r="H65" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2689,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2715,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
-      </c>
-      <c r="G67" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2741,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2767,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2793,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>91</v>
-      </c>
-      <c r="G70" t="s">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2819,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2845,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" t="s">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2871,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2897,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" t="s">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2923,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2949,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" t="s">
+        <v>85</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
         <v>92</v>
-      </c>
-      <c r="H76" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2975,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>80</v>
-      </c>
-      <c r="G77" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3001,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>80</v>
-      </c>
-      <c r="G78" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3027,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>102</v>
-      </c>
-      <c r="G79" t="s">
-        <v>103</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3053,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>80</v>
-      </c>
-      <c r="G80" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3079,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>102</v>
-      </c>
-      <c r="G81" t="s">
-        <v>103</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3105,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3131,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>102</v>
-      </c>
-      <c r="G83" t="s">
-        <v>103</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3157,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3183,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
+        <v>95</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
         <v>102</v>
-      </c>
-      <c r="G85" t="s">
-        <v>103</v>
-      </c>
-      <c r="H85" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3209,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>80</v>
-      </c>
-      <c r="G86" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3235,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>112</v>
-      </c>
-      <c r="G87" t="s">
-        <v>113</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3261,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3287,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>112</v>
-      </c>
-      <c r="G89" t="s">
-        <v>113</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3313,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3339,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>112</v>
-      </c>
-      <c r="G91" t="s">
-        <v>113</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3365,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3391,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>112</v>
-      </c>
-      <c r="G93" t="s">
-        <v>113</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3417,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3443,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>112</v>
-      </c>
-      <c r="G95" t="s">
+        <v>104</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
         <v>113</v>
-      </c>
-      <c r="H95" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3469,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>80</v>
-      </c>
-      <c r="G96" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3495,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>124</v>
-      </c>
-      <c r="G97" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3521,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3547,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>124</v>
-      </c>
-      <c r="G99" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3573,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>129</v>
-      </c>
-      <c r="G100" t="s">
-        <v>130</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3599,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>124</v>
-      </c>
-      <c r="G101" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3625,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3651,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>124</v>
-      </c>
-      <c r="G103" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3677,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3703,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>124</v>
-      </c>
-      <c r="G105" t="s">
+        <v>115</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
         <v>125</v>
-      </c>
-      <c r="H105" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3729,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3755,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>124</v>
-      </c>
-      <c r="G107" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3781,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>129</v>
-      </c>
-      <c r="G108" t="s">
-        <v>130</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3807,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
+        <v>119</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
         <v>129</v>
-      </c>
-      <c r="G109" t="s">
-        <v>130</v>
-      </c>
-      <c r="H109" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3833,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3859,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>129</v>
-      </c>
-      <c r="G111" t="s">
+        <v>119</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
         <v>130</v>
-      </c>
-      <c r="H111" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3885,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3911,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>129</v>
-      </c>
-      <c r="G113" t="s">
-        <v>130</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3937,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3963,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>129</v>
-      </c>
-      <c r="G115" t="s">
-        <v>130</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3989,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4015,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>129</v>
-      </c>
-      <c r="G117" t="s">
-        <v>130</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4041,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4067,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>129</v>
-      </c>
-      <c r="G119" t="s">
-        <v>130</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4093,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4119,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>129</v>
-      </c>
-      <c r="G121" t="s">
-        <v>130</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4145,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4171,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>129</v>
-      </c>
-      <c r="G123" t="s">
-        <v>130</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4197,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4223,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>129</v>
-      </c>
-      <c r="G125" t="s">
-        <v>130</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4249,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4275,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>129</v>
-      </c>
-      <c r="G127" t="s">
-        <v>130</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4301,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>158</v>
-      </c>
-      <c r="G128" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4327,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4353,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>158</v>
-      </c>
-      <c r="G130" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4379,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4405,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>158</v>
-      </c>
-      <c r="G132" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4431,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4457,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>158</v>
-      </c>
-      <c r="G134" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4483,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4509,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>158</v>
-      </c>
-      <c r="G136" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4535,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>129</v>
-      </c>
-      <c r="G137" t="s">
-        <v>130</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4561,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
+        <v>147</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
         <v>158</v>
-      </c>
-      <c r="G138" t="s">
-        <v>159</v>
-      </c>
-      <c r="H138" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4587,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>129</v>
-      </c>
-      <c r="G139" t="s">
-        <v>130</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4613,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>158</v>
-      </c>
-      <c r="G140" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4639,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4665,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>158</v>
-      </c>
-      <c r="G142" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4691,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4717,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>158</v>
-      </c>
-      <c r="G144" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4743,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4769,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>129</v>
-      </c>
-      <c r="G146" t="s">
-        <v>130</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4795,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>158</v>
-      </c>
-      <c r="G147" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4821,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>129</v>
-      </c>
-      <c r="G148" t="s">
-        <v>130</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4847,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>181</v>
-      </c>
-      <c r="G149" t="s">
-        <v>182</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4873,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>158</v>
-      </c>
-      <c r="G150" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4899,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>181</v>
-      </c>
-      <c r="G151" t="s">
-        <v>182</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4925,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>129</v>
-      </c>
-      <c r="G152" t="s">
-        <v>130</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4951,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>181</v>
-      </c>
-      <c r="G153" t="s">
-        <v>182</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4977,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5003,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>181</v>
-      </c>
-      <c r="G155" t="s">
-        <v>182</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5029,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5055,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>181</v>
-      </c>
-      <c r="G157" t="s">
-        <v>182</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5081,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5107,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>181</v>
-      </c>
-      <c r="G159" t="s">
-        <v>182</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5133,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5159,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>181</v>
-      </c>
-      <c r="G161" t="s">
-        <v>182</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5185,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5211,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>181</v>
-      </c>
-      <c r="G163" t="s">
+        <v>169</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
         <v>182</v>
-      </c>
-      <c r="H163" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5237,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5263,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>181</v>
-      </c>
-      <c r="G165" t="s">
-        <v>182</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5289,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5315,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>181</v>
-      </c>
-      <c r="G167" t="s">
-        <v>182</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5341,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5367,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>181</v>
-      </c>
-      <c r="G169" t="s">
-        <v>182</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5393,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>129</v>
-      </c>
-      <c r="G170" t="s">
-        <v>130</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5419,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5445,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>129</v>
-      </c>
-      <c r="G172" t="s">
-        <v>130</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94408.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94408.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Marino</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Marino. The Judiciary Committee will come to order.    Without objection, the Chair is authorized to declare recesses of the Committee at any time.    We welcome everyone this morning to our hearing on the Register's Perspective on Copyright and Review. And I know we will get a very thorough, in-depth analysis of this.    I'm going to turn first now to Ranking Member Conyers for his statement.    And Chairman Goodlatte will arrive shortly to give his opening statement.    And, with that, Ranking Member Conyers.</t>
   </si>
   <si>
     <t>400080</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman Marino.    And to the Committee that will be coming in soon and to all of our interested friends that are in the audience. You know, in the Declaration of Independence, our Founders--wait a minute--okay.    Today's hearing culminates the Committee's 2-year-long examination of the Copyright Act, a process that has involved 19 hearings and 99 witnesses. Our current Register of Copyrights here today makes 100 witnesses. It's a particularly fitting occasion that Ms. Maria Pallante, the Register of Copyrights, testifies at this final hearing, as she was the first witness to testify at the beginning of the process. Over the course of this review, we've identified several priorities that I think we should consider. First, if our Nation is to have a strong copyright system, we, in Congress, must restructure the Copyright Office.    The Office examines the Register's copyright claims, records copyrighted documents, and administers statutory licenses. It provides expert copyright advice to Congress as well as various Federal agencies concerning trade agreements, treaty negotiations, and court proceedings. And the Office recommends much needed improvements to the copyright system.    Nevertheless, the existing Copyright Office is ill-equipped financially and structurally to handle certain challenges presented by technological developments and the growing demands of the copyright system. Essentially, the Office needs to modernize and become more user-friendly and efficient.    I thank Ms. Pallante for acknowledging the Office's limitations in her post-hearing response to my February request about her views on reorganizing the copyright letter. Her thorough response included different alternative proposals to help Congress determine how best to approach restructuring the Copyright Office. Now I welcome other stakeholders in the copyright community to submit to us their views and proposals to help bring the Copyright Office into the 21st century.    The 2-year review has highlighted several other areas where the copyright community can find common ground and which Congress should address promptly. A forum to resolve small claims should be established. Fortunately, the Office has already submitted a legislative proposal for addressing the need.    With respect to music licensing, the Office recently issued a report recommending reforms. For me, that's a very important area. Pending actions in the courts and by the Department of Justice will provide additional guidance to Congress as it considers reforming music licensing. The Fair Play Fair Pay Act, H.R. 1733, which I support, is one legislative proposal to address music licensing, the AM/FM royalties for musicians, which is not paid. The issue of orphan works must also be addressed. The Copyright Office will soon be issuing a report which will provide Congress a much needed framework for a legislative solution. As more copyrighted content continues to move to the Internet, current criminal enforcement laws must be updated to deter copyright infringement while encouraging new technological platforms which utilize the licensing copyright.    These are a few of the copyright-related issues that have come to our attention over the last 2 years that Congress should address without delay. For areas which are not ripe and need more detailed discussion, we should request that the Copyright Office issue reports and submit legislative proposals on which we can act in the near term.    And, finally, this review has confirmed that strong copyright protections are integral to a strong and vibrant copyright system. I've noted many times during this Committee's review that we must ensure that the copyright system treats creators fairly and fosters their continuing creativity. Whatever changes Congress makes to the Copyright Act must promote creation among artists and protect their rights. Strong copyright protections will also foster a marketplace for content that consumers will enjoy as well as encourage technological innovation that can be used to watch the content. I thank the Chair for holding today's hearings.    And I welcome and look forward to hearing from Register Pallante.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Pallante</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Pallante. I do.</t>
   </si>
   <si>
@@ -151,6 +169,12 @@
     <t>400196</t>
   </si>
   <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>Darrell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you.    Ms. Pallante, it's good to have you here again. I want to pick up where the Ranking Member left off because I think it's very important. When you came into office, as you know, I was extremely pleased. You talked in terms of things that must get accomplished. But today's hearing brings us a lot of information about studies in which you want to do more studies. And you already are a fairly independent agency, in spite of your lack of certainty in certain areas. How do we get you from studying to proposing? And how do we get you from proposing to doing?</t>
   </si>
   <si>
@@ -208,6 +232,12 @@
     <t>400289</t>
   </si>
   <si>
+    <t>Nadler</t>
+  </si>
+  <si>
+    <t>Jerrold</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nadler. Thank you, Mr. Chairman.    I want to begin by thanking Chairman Goodlatte for conducting the comprehensive review of copyright law and of the Copyright Office that we are now concluding. Over the course of these 20 hearings, we have learned a lot about what is working and also what needs to be improved. It's now our task to put this knowledge into action.    Fortunately, the Copyright Office has helped guide us through these difficult issues. And I appreciate all the assistance that you, Ms. Pallante, and your staff have provided us throughout this review process. I particularly appreciate your call for the United States to join 70 other countries around the world in providing fair compensation to visual artists through a resale royalty and your comprehensive report on music licensing.    Along with my colleagues Marsha Blackburn, John Conyers, and Ted Deutch, I recently introduced the Fair Play Fair Pay Act to correct several longstanding injustices that plague music creators. This legislation would ensure that all artists are fairly compensated regardless of where their music is played or when it was recorded and would create a technology-neutral system whereby Internet radio is on an equal footing with AM/FM, cable, and satellite services.    Ms. Pallante, you mentioned in your testimony that music licensing issues are ripe for action. Do you believe that Congress should move forward with legislation, such as the Fair Play Fair Pay Act, to enact the full public performance right? If so, why do you believe this is an urgent matter that Congress should address?</t>
   </si>
   <si>
@@ -244,6 +274,12 @@
     <t>400154</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte [presiding]. Thank you, Register Pallante. I'm going to go ahead and give my statement since I'm late getting here, and then I'll go straight into my question, but a brief statement.    Two years ago, this Committee began the first comprehensive review of our Nation's copyright laws since the 1960's. During these 2 years, we have had a total of 20 hearings with 100 witnesses, had hearings that covered broader topics, such as the role of technology and copyright in our economy, to more specific topics, such as the scope of copyright protection and fair use.    Our first witness was the Register of Copyrights, Ms. Pallante. She returns this morning and has given her perspective on what the Committee has learned over the past 2 years and to update us on the in-depth studies that the Copyright Office has completed during this time. The Committee recognizes the strong, in-depth analysis routinely conducted by the Copyright Office. The Committee has always expected the advice of the Register being provided to Congress on copyright policy issues and the role of the Copyright Office itself to come from her independent perspective without filtering or direction from others. The Committee welcomes her forthrightness about the challenges her office faces, as well as what options Congress should consider in order to meet her legal requirements and the needs of the copyright community.    As the copyright review hearing process proceeded, each witness was essentially limited to speaking on the topic of that particular hearing. However, there are a few participants in the copyright system that care about only one copyright issue. Over the next several months, the Committee will be reaching out to all stakeholders to invite them to share their views on the copyright issues we have examined over the course of our review so far as well as any others. Even since we began our review, there have been several new Copyright Office studies, new technologies, court decisions, and even changes in business models. So we look forward to hearing from stakeholders on all of these important issues. During this process, we also encourage all participants in the copyright system to continue their dialogues with each other. Progress in copyright policy requires all parties to work together. Although it is certainly easier to discuss copyright policy with a traditional ally, copyright policy will not advance unless the lines of communication are open among all participants.    Finally, I'm going to my questions.    You recently released a comprehensive music study, recommending a series of changes to the music licensing system to improve it. Is improving the existing music licensing system preferable to shifting it to a free-market system with robust antimonopoly controls so that market forces determine prices rather than the government?</t>
   </si>
   <si>
@@ -274,6 +310,12 @@
     <t>400245</t>
   </si>
   <si>
+    <t>Lofgren</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you, Mr. Chairman.    I appreciate this hearing. And I just wanted to make a quick statement. In your testimony, there's some things I agree with. There's some things that are reminiscent of SOPA. And I just want to state for the Netroots that, to the extent that there are SOPA-like elements, I'm still against them.    I want to talk about the IT system. I agree that the IT system needs to be updated. But I want to talk about the whole idea of having taxpayer money allocated to this function. I realize from your testimony the constraint really has been created by us because of the forward funding. But the USPTO budget is $3.2 billion, and it's 100 percent fees. And it just seems to me that that ought to be the model here. Your budget is much smaller. But there is no reason why the taxpayers should be funding this any more than the taxpayers should be funding the Patent and Trademark Office. I just think that it's possible to do. We have very successful industries in the content area. And I just am eager to work with you to explore that further.    I also want to talk on section 1201. And I was looking up and down the dais here, realizing there's only a few of us left who were actually here when the DMCA was adopted. And 1201 caused me a lot of heartburn at the time. And it still does. And so here is one of the questions I have--and I had then--which is, do you believe that fair use is a defense to circumvention under 1201?</t>
   </si>
   <si>
@@ -304,6 +346,12 @@
     <t>412379</t>
   </si>
   <si>
+    <t>Chu</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Chu. Thank you, Mr. Chair.    First I'd like to enter into the record statements from the Copyright Alliance and Creative Future&lt;greek-l&gt;B1 deg. on their support for a strong copyright system. I'd also like to enter a statement from Sound Exchange&lt;greek-l&gt;B2 deg. into the record.</t>
   </si>
   <si>
@@ -331,6 +379,12 @@
     <t>412636</t>
   </si>
   <si>
+    <t>Trott</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Trott. Thank you, Chairman.    I want to thank our witness this morning, Ms. Pallante. I've been looking forward to your testimony. I'm new here in Congress, but everyone I've spoken with has commented to me on how insightful, helpful, and pragmatic some of your suggestions and insight has been for this Committee, and one of the few people that I've heard about since being here that everyone says great things about, and it doesn't happen too often in this town.</t>
   </si>
   <si>
@@ -364,6 +418,12 @@
     <t>412385</t>
   </si>
   <si>
+    <t>Deutch</t>
+  </si>
+  <si>
+    <t>Theodore</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you, Mr. Chairman.    Mr. Chairman, first I'd like to join the chorus of voices heaping praise on Ms. Pallante and her office. Thank you for your leadership, your thoughtful, very thoughtful, analysis of these issues and the tireless efforts that you and your staff put in in really strengthening the intellectual property of our country. We appreciate it.    I want to follow up on this issue of independence, and the understanding that I have that a lot of us I think have come to conclude, certainly from today, that the Register would be in a better position--significantly better position if it gained more independence through Copyright Office modernization, which I think is one thing where there's broad agreement and I hope that we move forward on.    But following up on this issue, when you were here with us last, you somewhat reluctantly discussed the challenges created by the fact that the Copyright Office is forced to rely on technical infrastructure at the Library of Congress, including its network servers, telecommunications and security operations, in spite of the vastly different mandates that the Library and the Copyright Office have. And you touched on that a bit here today.    It seems to me like your inclusion under the umbrella of the Library of Congress, however well intentioned, is hampering the work that you do beyond simple technical challenges. It's not just about the technical issues. And I'm sure that--and I acknowledge that your response has been somewhat limited here today, but I will simply say on your behalf, if I may, that it's hard to see how the Copyright Office can rise to the many challenges of the 21st century work that you do without dramatically more independence and dramatically more flexibility. I would just make that point.    I also wanted to follow up on Mr. Trott's last point. One of the primary recommendations of your recent music licensing study is that Congress should adopt a uniform market-based rate setting a standard for all government rates, and I agree with that. And when the Music First Coalition showed me this graphic that we're about to hold up that depicts the current system for the various forms of radio, it solidified for me how unnecessarily complex and, in fact, as you've just pointed out, how unfair the current system is. You spoke about the--I mean, your words, that it's indefensible that we don't pay creators when songs are played on the radio. I wholeheartedly agree with that.    Do you agree that all forms of radio should be governed by the same fair-market-value rate standard?</t>
   </si>
   <si>
@@ -376,6 +436,12 @@
     <t>412531</t>
   </si>
   <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Collins [presiding]. Oh, without objection, but the bigger version will be fine as well.</t>
   </si>
   <si>
@@ -460,6 +526,12 @@
     <t>400199</t>
   </si>
   <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
+    <t>Sheila</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Let me thank you for your presence here today, and I know that Members have been going in and out because we've been detained in other meetings, and in fact there is one overlapping now. But I think it's very important to, one, emphasize how important copyright and intellectual property is to this Committee, to this Congress, and to the Nation, and I might say that you are particularly important today because the prime minister of Japan in his speech just finished and indicated his commitment to protecting intellectual property, of which I think he received a standing ovation. So you might want to use that quote or comment on how important it is to do that.    Let me go to the whole question of finance and staffing. In your testimony, you mentioned that the Copyright Office has one of the smallest staffs within the government generally, and so I would be interested in how that's impacting on your work, and as we're going forward, have you looked at--I know you looked at the President's budget, but we're getting ready to go forward. We are absolutely opposed to sequester. We think it has had a dastardly impact. But I'd like to know presently what your situation is with your copyright staffing.</t>
   </si>
   <si>
@@ -524,6 +596,12 @@
   </si>
   <si>
     <t>412561</t>
+  </si>
+  <si>
+    <t>Jeffries</t>
+  </si>
+  <si>
+    <t>Hakeem</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank the Chairman, and I thank the Register for your testimony here today----</t>
@@ -938,7 +1016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,7 +1024,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,4109 +1046,4833 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
         <v>16</v>
       </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
+        <v>51</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G34" t="s">
+        <v>51</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>51</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G38" t="s">
+        <v>51</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G40" t="s">
+        <v>51</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G42" t="s">
+        <v>51</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G44" t="s">
+        <v>51</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G48" t="s">
+        <v>51</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G56" t="s">
+        <v>72</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G61" t="s">
+        <v>86</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G63" t="s">
+        <v>86</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>75</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G65" t="s">
+        <v>86</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>75</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G67" t="s">
+        <v>86</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G69" t="s">
+        <v>86</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G70" t="s">
+        <v>98</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>85</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G72" t="s">
+        <v>98</v>
+      </c>
       <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G74" t="s">
+        <v>98</v>
+      </c>
       <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>85</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G76" t="s">
+        <v>98</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>75</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G77" t="s">
+        <v>86</v>
+      </c>
       <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>75</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G78" t="s">
+        <v>86</v>
+      </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G79" t="s">
+        <v>110</v>
+      </c>
       <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>75</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G80" t="s">
+        <v>86</v>
+      </c>
       <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>95</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G81" t="s">
+        <v>110</v>
+      </c>
       <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>95</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G83" t="s">
+        <v>110</v>
+      </c>
       <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>95</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G85" t="s">
+        <v>110</v>
+      </c>
       <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>75</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G86" t="s">
+        <v>86</v>
+      </c>
       <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G87" t="s">
+        <v>121</v>
+      </c>
       <c r="H87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>104</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G89" t="s">
+        <v>121</v>
+      </c>
       <c r="H89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>104</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G91" t="s">
+        <v>121</v>
+      </c>
       <c r="H91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G93" t="s">
+        <v>121</v>
+      </c>
       <c r="H93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>104</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G95" t="s">
+        <v>121</v>
+      </c>
       <c r="H95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>75</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G96" t="s">
+        <v>86</v>
+      </c>
       <c r="H96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>115</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G97" t="s">
+        <v>134</v>
+      </c>
       <c r="H97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I97" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>115</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G99" t="s">
+        <v>134</v>
+      </c>
       <c r="H99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I99" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>119</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G100" t="s">
+        <v>140</v>
+      </c>
       <c r="H100" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>115</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G101" t="s">
+        <v>134</v>
+      </c>
       <c r="H101" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>22</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>115</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G103" t="s">
+        <v>134</v>
+      </c>
       <c r="H103" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>115</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G105" t="s">
+        <v>134</v>
+      </c>
       <c r="H105" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>22</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>115</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G107" t="s">
+        <v>134</v>
+      </c>
       <c r="H107" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>119</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G108" t="s">
+        <v>140</v>
+      </c>
       <c r="H108" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>119</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G109" t="s">
+        <v>140</v>
+      </c>
       <c r="H109" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>22</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>119</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G111" t="s">
+        <v>140</v>
+      </c>
       <c r="H111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I111" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>22</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>119</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G113" t="s">
+        <v>140</v>
+      </c>
       <c r="H113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I113" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>22</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>119</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G115" t="s">
+        <v>140</v>
+      </c>
       <c r="H115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I115" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>22</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>119</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G117" t="s">
+        <v>140</v>
+      </c>
       <c r="H117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I117" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>22</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>119</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G119" t="s">
+        <v>140</v>
+      </c>
       <c r="H119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I119" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>119</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G121" t="s">
+        <v>140</v>
+      </c>
       <c r="H121" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>119</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G123" t="s">
+        <v>140</v>
+      </c>
       <c r="H123" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I123" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>22</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>119</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G125" t="s">
+        <v>140</v>
+      </c>
       <c r="H125" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>22</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>119</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G127" t="s">
+        <v>140</v>
+      </c>
       <c r="H127" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I127" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>147</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G128" t="s">
+        <v>170</v>
+      </c>
       <c r="H128" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I128" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G129" t="s">
+        <v>22</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>147</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G130" t="s">
+        <v>170</v>
+      </c>
       <c r="H130" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I130" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G131" t="s">
+        <v>22</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>147</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G132" t="s">
+        <v>170</v>
+      </c>
       <c r="H132" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I132" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G133" t="s">
+        <v>22</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>147</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G134" t="s">
+        <v>170</v>
+      </c>
       <c r="H134" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I134" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>147</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G136" t="s">
+        <v>170</v>
+      </c>
       <c r="H136" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I136" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>119</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G137" t="s">
+        <v>140</v>
+      </c>
       <c r="H137" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I137" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>147</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G138" t="s">
+        <v>170</v>
+      </c>
       <c r="H138" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I138" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>119</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G139" t="s">
+        <v>140</v>
+      </c>
       <c r="H139" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I139" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>147</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G140" t="s">
+        <v>170</v>
+      </c>
       <c r="H140" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I140" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G141" t="s">
+        <v>22</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>147</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G142" t="s">
+        <v>170</v>
+      </c>
       <c r="H142" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I142" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G143" t="s">
+        <v>22</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>147</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G144" t="s">
+        <v>170</v>
+      </c>
       <c r="H144" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I144" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G145" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>119</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G146" t="s">
+        <v>140</v>
+      </c>
       <c r="H146" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I146" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>147</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G147" t="s">
+        <v>170</v>
+      </c>
       <c r="H147" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I147" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>119</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G148" t="s">
+        <v>140</v>
+      </c>
       <c r="H148" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I148" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>169</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G149" t="s">
+        <v>194</v>
+      </c>
       <c r="H149" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I149" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>147</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>169</v>
+      </c>
+      <c r="G150" t="s">
+        <v>170</v>
+      </c>
       <c r="H150" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="I150" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>169</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G151" t="s">
+        <v>194</v>
+      </c>
       <c r="H151" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I151" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>119</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G152" t="s">
+        <v>140</v>
+      </c>
       <c r="H152" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I152" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>169</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G153" t="s">
+        <v>194</v>
+      </c>
       <c r="H153" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I153" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G154" t="s">
+        <v>22</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>169</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G155" t="s">
+        <v>194</v>
+      </c>
       <c r="H155" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I155" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G156" t="s">
+        <v>22</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>169</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G157" t="s">
+        <v>194</v>
+      </c>
       <c r="H157" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I157" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G158" t="s">
+        <v>22</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>169</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G159" t="s">
+        <v>194</v>
+      </c>
       <c r="H159" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I159" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G160" t="s">
+        <v>22</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>169</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G161" t="s">
+        <v>194</v>
+      </c>
       <c r="H161" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I161" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>22</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>169</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G163" t="s">
+        <v>194</v>
+      </c>
       <c r="H163" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I163" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>22</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>169</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G165" t="s">
+        <v>194</v>
+      </c>
       <c r="H165" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I165" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>22</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>169</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G167" t="s">
+        <v>194</v>
+      </c>
       <c r="H167" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I167" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>22</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>169</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G169" t="s">
+        <v>194</v>
+      </c>
       <c r="H169" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I169" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>119</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G170" t="s">
+        <v>140</v>
+      </c>
       <c r="H170" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I170" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G171" t="s">
+        <v>22</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>119</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G172" t="s">
+        <v>140</v>
+      </c>
       <c r="H172" t="s">
-        <v>191</v>
+        <v>141</v>
+      </c>
+      <c r="I172" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94408.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94408.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Marino</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400080</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Conyers</t>
   </si>
   <si>
@@ -272,6 +281,9 @@
   </si>
   <si>
     <t>400154</t>
+  </si>
+  <si>
+    <t>Chair</t>
   </si>
   <si>
     <t>Goodlatte</t>
@@ -1016,7 +1028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1024,7 +1036,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,4830 +1061,5212 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
         <v>21</v>
       </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G38" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G42" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G44" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G48" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G50" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I52" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G56" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G60" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>22</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>22</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G70" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G72" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G74" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>25</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G76" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H77" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G79" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I79" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H80" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G81" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I81" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>25</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G83" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I83" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>25</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G85" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I85" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G87" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I87" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G89" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I89" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>22</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>25</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G91" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I91" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>22</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>25</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G93" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I93" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>22</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>25</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G95" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I95" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J95" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G96" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H96" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G97" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I97" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>22</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>25</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G99" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I99" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G100" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I100" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G101" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I101" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>22</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>25</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G103" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I103" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J103" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>22</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>25</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G105" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I105" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>22</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G107" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I107" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J107" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G108" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I108" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J108" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G109" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I109" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J109" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>22</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>25</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G111" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I111" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>22</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>25</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G113" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I113" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J113" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>22</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>25</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G115" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I115" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J115" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>22</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>25</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G117" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I117" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>22</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>25</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G119" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I119" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J119" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>22</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>25</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G121" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I121" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J121" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>22</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>25</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G123" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I123" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J123" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>22</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>25</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G125" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I125" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J125" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>22</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>25</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G127" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I127" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J127" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G128" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I128" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J128" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s">
-        <v>22</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>25</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G130" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I130" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J130" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" t="s">
-        <v>22</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>25</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G132" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I132" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J132" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s">
-        <v>22</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>25</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G134" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I134" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J134" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s">
-        <v>22</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>25</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G136" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I136" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J136" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G137" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I137" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J137" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G138" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I138" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J138" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G139" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I139" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J139" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G140" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I140" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J140" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>22</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>25</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G142" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I142" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J142" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
-      </c>
-      <c r="G143" t="s">
-        <v>22</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>25</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G144" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I144" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J144" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145" t="s">
-        <v>22</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>25</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G146" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I146" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J146" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G147" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I147" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J147" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G148" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I148" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J148" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G149" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I149" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J149" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G150" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I150" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J150" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G151" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I151" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J151" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G152" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I152" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J152" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G153" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I153" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J153" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>21</v>
-      </c>
-      <c r="G154" t="s">
-        <v>22</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>25</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G155" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I155" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J155" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>21</v>
-      </c>
-      <c r="G156" t="s">
-        <v>22</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>25</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G157" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I157" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J157" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
-      </c>
-      <c r="G158" t="s">
-        <v>22</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>25</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G159" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I159" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J159" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>21</v>
-      </c>
-      <c r="G160" t="s">
-        <v>22</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>25</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G161" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I161" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J161" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>21</v>
-      </c>
-      <c r="G162" t="s">
-        <v>22</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>25</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G163" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I163" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J163" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>21</v>
-      </c>
-      <c r="G164" t="s">
-        <v>22</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>25</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G165" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I165" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J165" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>21</v>
-      </c>
-      <c r="G166" t="s">
-        <v>22</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>25</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G167" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I167" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J167" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>21</v>
-      </c>
-      <c r="G168" t="s">
-        <v>22</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>25</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G169" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I169" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J169" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G170" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I170" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J170" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
-      </c>
-      <c r="G171" t="s">
-        <v>22</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>25</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G172" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I172" t="s">
-        <v>217</v>
+        <v>145</v>
+      </c>
+      <c r="J172" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
